--- a/app/db/JX Hosting Panel.xlsx
+++ b/app/db/JX Hosting Panel.xlsx
@@ -608,7 +608,7 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
